--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9792095000000001</v>
+        <v>1.0908385</v>
       </c>
       <c r="N2">
-        <v>1.958419</v>
+        <v>2.181677</v>
       </c>
       <c r="O2">
-        <v>0.1732975521250336</v>
+        <v>0.1847946122785994</v>
       </c>
       <c r="P2">
-        <v>0.1424379312953115</v>
+        <v>0.1530662724240735</v>
       </c>
       <c r="Q2">
-        <v>191.0234435919657</v>
+        <v>197.9810872356888</v>
       </c>
       <c r="R2">
-        <v>764.0937743678629</v>
+        <v>791.9243489427552</v>
       </c>
       <c r="S2">
-        <v>0.04576104732618942</v>
+        <v>0.04138450335961017</v>
       </c>
       <c r="T2">
-        <v>0.02823556033457509</v>
+        <v>0.02532250478010714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.965978</v>
       </c>
       <c r="O3">
-        <v>0.1749699552059434</v>
+        <v>0.1674848459959488</v>
       </c>
       <c r="P3">
-        <v>0.215718786729196</v>
+        <v>0.2080927637555003</v>
       </c>
       <c r="Q3">
-        <v>192.8669098825843</v>
+        <v>179.4361399226783</v>
       </c>
       <c r="R3">
-        <v>1157.201459295506</v>
+        <v>1076.61683953607</v>
       </c>
       <c r="S3">
-        <v>0.04620266300740092</v>
+        <v>0.0375080046238222</v>
       </c>
       <c r="T3">
-        <v>0.04276207020562114</v>
+        <v>0.03442580734118415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.278793</v>
+        <v>0.3396683333333333</v>
       </c>
       <c r="N4">
-        <v>0.836379</v>
+        <v>1.019005</v>
       </c>
       <c r="O4">
-        <v>0.04933994660958097</v>
+        <v>0.05754186156947282</v>
       </c>
       <c r="P4">
-        <v>0.06083074895558167</v>
+        <v>0.07149330397281219</v>
       </c>
       <c r="Q4">
-        <v>54.3867261391305</v>
+        <v>61.64790290484584</v>
       </c>
       <c r="R4">
-        <v>326.320356834783</v>
+        <v>369.887417429075</v>
       </c>
       <c r="S4">
-        <v>0.0130287335521258</v>
+        <v>0.01288642203404676</v>
       </c>
       <c r="T4">
-        <v>0.01205851746591081</v>
+        <v>0.01182748820446522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.2228665</v>
+        <v>2.364942</v>
       </c>
       <c r="N5">
-        <v>4.445733000000001</v>
+        <v>4.729884</v>
       </c>
       <c r="O5">
-        <v>0.393396227416851</v>
+        <v>0.4006354194056915</v>
       </c>
       <c r="P5">
-        <v>0.3233429677772218</v>
+        <v>0.3318482584169272</v>
       </c>
       <c r="Q5">
-        <v>433.6351041071603</v>
+        <v>429.2237470618651</v>
       </c>
       <c r="R5">
-        <v>1734.540416428641</v>
+        <v>1716.89498824746</v>
       </c>
       <c r="S5">
-        <v>0.1038804250840102</v>
+        <v>0.08972176004448247</v>
       </c>
       <c r="T5">
-        <v>0.06409647902359585</v>
+        <v>0.05489928628268634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8941686666666667</v>
+        <v>0.9676513333333333</v>
       </c>
       <c r="N6">
-        <v>2.682506</v>
+        <v>2.902954</v>
       </c>
       <c r="O6">
-        <v>0.1582472812204522</v>
+        <v>0.1639259642597901</v>
       </c>
       <c r="P6">
-        <v>0.1951015616817753</v>
+        <v>0.2036710052856375</v>
       </c>
       <c r="Q6">
-        <v>174.4337425838937</v>
+        <v>175.6233054099183</v>
       </c>
       <c r="R6">
-        <v>1046.602455503362</v>
+        <v>1053.73983245951</v>
       </c>
       <c r="S6">
-        <v>0.04178686447887712</v>
+        <v>0.03671099787481336</v>
       </c>
       <c r="T6">
-        <v>0.03867510477117496</v>
+        <v>0.03369429413310546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.286755</v>
+        <v>0.1512183333333333</v>
       </c>
       <c r="N7">
-        <v>0.8602650000000001</v>
+        <v>0.453655</v>
       </c>
       <c r="O7">
-        <v>0.05074903742213898</v>
+        <v>0.0256172964904973</v>
       </c>
       <c r="P7">
-        <v>0.06256800356091374</v>
+        <v>0.03182839614504945</v>
       </c>
       <c r="Q7">
-        <v>55.9399470360675</v>
+        <v>27.44528181147084</v>
       </c>
       <c r="R7">
-        <v>335.639682216405</v>
+        <v>164.671690868825</v>
       </c>
       <c r="S7">
-        <v>0.01340081885032922</v>
+        <v>0.005736958884260121</v>
       </c>
       <c r="T7">
-        <v>0.01240289453442968</v>
+        <v>0.005265527805454018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9792095000000001</v>
+        <v>1.0908385</v>
       </c>
       <c r="N8">
-        <v>1.958419</v>
+        <v>2.181677</v>
       </c>
       <c r="O8">
-        <v>0.1732975521250336</v>
+        <v>0.1847946122785994</v>
       </c>
       <c r="P8">
-        <v>0.1424379312953115</v>
+        <v>0.1530662724240735</v>
       </c>
       <c r="Q8">
-        <v>61.11043042406217</v>
+        <v>68.07696438620984</v>
       </c>
       <c r="R8">
-        <v>366.662582544373</v>
+        <v>408.4617863172591</v>
       </c>
       <c r="S8">
-        <v>0.01463944553702377</v>
+        <v>0.01423030553418085</v>
       </c>
       <c r="T8">
-        <v>0.01354928389572048</v>
+        <v>0.01306093890195257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.965978</v>
       </c>
       <c r="O9">
-        <v>0.1749699552059434</v>
+        <v>0.1674848459959488</v>
       </c>
       <c r="P9">
-        <v>0.215718786729196</v>
+        <v>0.2080927637555003</v>
       </c>
       <c r="Q9">
         <v>61.70017488879178</v>
@@ -1013,10 +1013,10 @@
         <v>555.3015739991259</v>
       </c>
       <c r="S9">
-        <v>0.01478072308837237</v>
+        <v>0.01289734858327138</v>
       </c>
       <c r="T9">
-        <v>0.02052006130989397</v>
+        <v>0.01775627530681007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.278793</v>
+        <v>0.3396683333333333</v>
       </c>
       <c r="N10">
-        <v>0.836379</v>
+        <v>1.019005</v>
       </c>
       <c r="O10">
-        <v>0.04933994660958097</v>
+        <v>0.05754186156947282</v>
       </c>
       <c r="P10">
-        <v>0.06083074895558167</v>
+        <v>0.07149330397281219</v>
       </c>
       <c r="Q10">
-        <v>17.398891891077</v>
+        <v>21.19799496575945</v>
       </c>
       <c r="R10">
-        <v>156.590027019693</v>
+        <v>190.781954691835</v>
       </c>
       <c r="S10">
-        <v>0.004168030375117346</v>
+        <v>0.004431072210615336</v>
       </c>
       <c r="T10">
-        <v>0.005786471901783428</v>
+        <v>0.006100427352804369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.2228665</v>
+        <v>2.364942</v>
       </c>
       <c r="N11">
-        <v>4.445733000000001</v>
+        <v>4.729884</v>
       </c>
       <c r="O11">
-        <v>0.393396227416851</v>
+        <v>0.4006354194056915</v>
       </c>
       <c r="P11">
-        <v>0.3233429677772218</v>
+        <v>0.3318482584169272</v>
       </c>
       <c r="Q11">
-        <v>138.7244798893685</v>
+        <v>147.591116658838</v>
       </c>
       <c r="R11">
-        <v>832.3468793362111</v>
+        <v>885.5466999530281</v>
       </c>
       <c r="S11">
-        <v>0.033232452363692</v>
+        <v>0.03085135630124599</v>
       </c>
       <c r="T11">
-        <v>0.03075771759851855</v>
+        <v>0.02831616501311745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8941686666666667</v>
+        <v>0.9676513333333333</v>
       </c>
       <c r="N12">
-        <v>2.682506</v>
+        <v>2.902954</v>
       </c>
       <c r="O12">
-        <v>0.1582472812204522</v>
+        <v>0.1639259642597901</v>
       </c>
       <c r="P12">
-        <v>0.1951015616817753</v>
+        <v>0.2036710052856375</v>
       </c>
       <c r="Q12">
-        <v>55.80320870223356</v>
+        <v>60.38910925641311</v>
       </c>
       <c r="R12">
-        <v>502.228878320102</v>
+        <v>543.501983307718</v>
       </c>
       <c r="S12">
-        <v>0.01336806219361621</v>
+        <v>0.01262329311249173</v>
       </c>
       <c r="T12">
-        <v>0.01855886577181572</v>
+        <v>0.01737897261105967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.286755</v>
+        <v>0.1512183333333333</v>
       </c>
       <c r="N13">
-        <v>0.8602650000000001</v>
+        <v>0.453655</v>
       </c>
       <c r="O13">
-        <v>0.05074903742213898</v>
+        <v>0.0256172964904973</v>
       </c>
       <c r="P13">
-        <v>0.06256800356091374</v>
+        <v>0.03182839614504945</v>
       </c>
       <c r="Q13">
-        <v>17.895783768695</v>
+        <v>9.437222002042779</v>
       </c>
       <c r="R13">
-        <v>161.062053918255</v>
+        <v>84.93499801838502</v>
       </c>
       <c r="S13">
-        <v>0.004287064417746409</v>
+        <v>0.001972687144525003</v>
       </c>
       <c r="T13">
-        <v>0.005951726729852999</v>
+        <v>0.002715874181909281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9792095000000001</v>
+        <v>1.0908385</v>
       </c>
       <c r="N14">
-        <v>1.958419</v>
+        <v>2.181677</v>
       </c>
       <c r="O14">
-        <v>0.1732975521250336</v>
+        <v>0.1847946122785994</v>
       </c>
       <c r="P14">
-        <v>0.1424379312953115</v>
+        <v>0.1530662724240735</v>
       </c>
       <c r="Q14">
-        <v>139.8919366076577</v>
+        <v>187.6220748662192</v>
       </c>
       <c r="R14">
-        <v>839.351619645946</v>
+        <v>1125.732449197315</v>
       </c>
       <c r="S14">
-        <v>0.03351212506319072</v>
+        <v>0.03921913196887624</v>
       </c>
       <c r="T14">
-        <v>0.03101656379551469</v>
+        <v>0.03599632384580378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.965978</v>
       </c>
       <c r="O15">
-        <v>0.1749699552059434</v>
+        <v>0.1674848459959488</v>
       </c>
       <c r="P15">
-        <v>0.215718786729196</v>
+        <v>0.2080927637555003</v>
       </c>
       <c r="Q15">
-        <v>141.2419597494058</v>
+        <v>170.0474593222122</v>
       </c>
       <c r="R15">
-        <v>1271.177637744652</v>
+        <v>1530.42713389991</v>
       </c>
       <c r="S15">
-        <v>0.0338355328696846</v>
+        <v>0.03554546421515302</v>
       </c>
       <c r="T15">
-        <v>0.04697383238882643</v>
+        <v>0.04893680623095416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.278793</v>
+        <v>0.3396683333333333</v>
       </c>
       <c r="N16">
-        <v>0.836379</v>
+        <v>1.019005</v>
       </c>
       <c r="O16">
-        <v>0.04933994660958097</v>
+        <v>0.05754186156947282</v>
       </c>
       <c r="P16">
-        <v>0.06083074895558167</v>
+        <v>0.07149330397281219</v>
       </c>
       <c r="Q16">
-        <v>39.828956604954</v>
+        <v>58.42228475283055</v>
       </c>
       <c r="R16">
-        <v>358.4606094445859</v>
+        <v>525.800562775475</v>
       </c>
       <c r="S16">
-        <v>0.009541314583592305</v>
+        <v>0.01221216265345259</v>
       </c>
       <c r="T16">
-        <v>0.01324619635059136</v>
+        <v>0.01681295351259296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.2228665</v>
+        <v>2.364942</v>
       </c>
       <c r="N17">
-        <v>4.445733000000001</v>
+        <v>4.729884</v>
       </c>
       <c r="O17">
-        <v>0.393396227416851</v>
+        <v>0.4006354194056915</v>
       </c>
       <c r="P17">
-        <v>0.3233429677772218</v>
+        <v>0.3318482584169272</v>
       </c>
       <c r="Q17">
-        <v>317.5634014021371</v>
+        <v>406.76536900583</v>
       </c>
       <c r="R17">
-        <v>1905.380408412822</v>
+        <v>2440.59221403498</v>
       </c>
       <c r="S17">
-        <v>0.07607460931167134</v>
+        <v>0.08502722666713552</v>
       </c>
       <c r="T17">
-        <v>0.07040952993834565</v>
+        <v>0.07804016644860159</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8941686666666667</v>
+        <v>0.9676513333333333</v>
       </c>
       <c r="N18">
-        <v>2.682506</v>
+        <v>2.902954</v>
       </c>
       <c r="O18">
-        <v>0.1582472812204522</v>
+        <v>0.1639259642597901</v>
       </c>
       <c r="P18">
-        <v>0.1951015616817753</v>
+        <v>0.2036710052856375</v>
       </c>
       <c r="Q18">
-        <v>127.7428236081116</v>
+        <v>166.4341246729589</v>
       </c>
       <c r="R18">
-        <v>1149.685412473004</v>
+        <v>1497.90712205663</v>
       </c>
       <c r="S18">
-        <v>0.03060171718607696</v>
+        <v>0.03479015944327144</v>
       </c>
       <c r="T18">
-        <v>0.04248432969699076</v>
+        <v>0.04789694913292456</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.286755</v>
+        <v>0.1512183333333333</v>
       </c>
       <c r="N19">
-        <v>0.8602650000000001</v>
+        <v>0.453655</v>
       </c>
       <c r="O19">
-        <v>0.05074903742213898</v>
+        <v>0.0256172964904973</v>
       </c>
       <c r="P19">
-        <v>0.06256800356091374</v>
+        <v>0.03182839614504945</v>
       </c>
       <c r="Q19">
-        <v>40.96642473539001</v>
+        <v>26.00925568524722</v>
       </c>
       <c r="R19">
-        <v>368.69782261851</v>
+        <v>234.083301167225</v>
       </c>
       <c r="S19">
-        <v>0.009813803300003988</v>
+        <v>0.00543678259532783</v>
       </c>
       <c r="T19">
-        <v>0.01362449213041155</v>
+        <v>0.007485027478525975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9792095000000001</v>
+        <v>1.0908385</v>
       </c>
       <c r="N20">
-        <v>1.958419</v>
+        <v>2.181677</v>
       </c>
       <c r="O20">
-        <v>0.1732975521250336</v>
+        <v>0.1847946122785994</v>
       </c>
       <c r="P20">
-        <v>0.1424379312953115</v>
+        <v>0.1530662724240735</v>
       </c>
       <c r="Q20">
-        <v>51.91486218098776</v>
+        <v>60.69730357902676</v>
       </c>
       <c r="R20">
-        <v>207.659448723951</v>
+        <v>242.789214316107</v>
       </c>
       <c r="S20">
-        <v>0.01243658066531003</v>
+        <v>0.01268771577607895</v>
       </c>
       <c r="T20">
-        <v>0.00767364044856996</v>
+        <v>0.007763407007608617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.965978</v>
       </c>
       <c r="O21">
-        <v>0.1749699552059434</v>
+        <v>0.1674848459959488</v>
       </c>
       <c r="P21">
-        <v>0.215718786729196</v>
+        <v>0.2080927637555003</v>
       </c>
       <c r="Q21">
-        <v>52.415865076827</v>
+        <v>55.011769103833</v>
       </c>
       <c r="R21">
-        <v>314.495190460962</v>
+        <v>330.070614622998</v>
       </c>
       <c r="S21">
-        <v>0.01255659953208342</v>
+        <v>0.01149925366651528</v>
       </c>
       <c r="T21">
-        <v>0.01162154204507239</v>
+        <v>0.01055430954701956</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.278793</v>
+        <v>0.3396683333333333</v>
       </c>
       <c r="N22">
-        <v>0.836379</v>
+        <v>1.019005</v>
       </c>
       <c r="O22">
-        <v>0.04933994660958097</v>
+        <v>0.05754186156947282</v>
       </c>
       <c r="P22">
-        <v>0.06083074895558167</v>
+        <v>0.07149330397281219</v>
       </c>
       <c r="Q22">
-        <v>14.7808004027985</v>
+        <v>18.9000956094925</v>
       </c>
       <c r="R22">
-        <v>88.684802416791</v>
+        <v>113.400573656955</v>
       </c>
       <c r="S22">
-        <v>0.003540847625991965</v>
+        <v>0.003950736311074257</v>
       </c>
       <c r="T22">
-        <v>0.003277169862391294</v>
+        <v>0.003626086977031072</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.2228665</v>
+        <v>2.364942</v>
       </c>
       <c r="N23">
-        <v>4.445733000000001</v>
+        <v>4.729884</v>
       </c>
       <c r="O23">
-        <v>0.393396227416851</v>
+        <v>0.4006354194056915</v>
       </c>
       <c r="P23">
-        <v>0.3233429677772218</v>
+        <v>0.3318482584169272</v>
       </c>
       <c r="Q23">
-        <v>117.8499677487143</v>
+        <v>131.591984075361</v>
       </c>
       <c r="R23">
-        <v>471.3998709948571</v>
+        <v>526.367936301444</v>
       </c>
       <c r="S23">
-        <v>0.02823181202333656</v>
+        <v>0.02750701586248716</v>
       </c>
       <c r="T23">
-        <v>0.01741964133943874</v>
+        <v>0.01683109579959631</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8941686666666667</v>
+        <v>0.9676513333333333</v>
       </c>
       <c r="N24">
-        <v>2.682506</v>
+        <v>2.902954</v>
       </c>
       <c r="O24">
-        <v>0.1582472812204522</v>
+        <v>0.1639259642597901</v>
       </c>
       <c r="P24">
-        <v>0.1951015616817753</v>
+        <v>0.2036710052856375</v>
       </c>
       <c r="Q24">
-        <v>47.406242582979</v>
+        <v>53.842825255969</v>
       </c>
       <c r="R24">
-        <v>284.4374554978741</v>
+        <v>323.056951535814</v>
       </c>
       <c r="S24">
-        <v>0.01135650823587058</v>
+        <v>0.01125490628326481</v>
       </c>
       <c r="T24">
-        <v>0.0105108184434136</v>
+        <v>0.01033004126017071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.286755</v>
+        <v>0.1512183333333333</v>
       </c>
       <c r="N25">
-        <v>0.8602650000000001</v>
+        <v>0.453655</v>
       </c>
       <c r="O25">
-        <v>0.05074903742213898</v>
+        <v>0.0256172964904973</v>
       </c>
       <c r="P25">
-        <v>0.06256800356091374</v>
+        <v>0.03182839614504945</v>
       </c>
       <c r="Q25">
-        <v>15.2029226684475</v>
+        <v>8.414210797517502</v>
       </c>
       <c r="R25">
-        <v>91.21753601068501</v>
+        <v>50.48526478510501</v>
       </c>
       <c r="S25">
-        <v>0.003641970067366562</v>
+        <v>0.001758844442569362</v>
       </c>
       <c r="T25">
-        <v>0.003370761977130041</v>
+        <v>0.001614312478903471</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9792095000000001</v>
+        <v>1.0908385</v>
       </c>
       <c r="N26">
-        <v>1.958419</v>
+        <v>2.181677</v>
       </c>
       <c r="O26">
-        <v>0.1732975521250336</v>
+        <v>0.1847946122785994</v>
       </c>
       <c r="P26">
-        <v>0.1424379312953115</v>
+        <v>0.1530662724240735</v>
       </c>
       <c r="Q26">
-        <v>140.794496199223</v>
+        <v>221.8616249568045</v>
       </c>
       <c r="R26">
-        <v>844.766977195338</v>
+        <v>1331.169749740827</v>
       </c>
       <c r="S26">
-        <v>0.03372833974034076</v>
+        <v>0.04637631448332775</v>
       </c>
       <c r="T26">
-        <v>0.03121667752493966</v>
+        <v>0.04256536927542149</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.965978</v>
       </c>
       <c r="O27">
-        <v>0.1749699552059434</v>
+        <v>0.1674848459959488</v>
       </c>
       <c r="P27">
-        <v>0.215718786729196</v>
+        <v>0.2080927637555003</v>
       </c>
       <c r="Q27">
-        <v>142.1532294665506</v>
+        <v>201.079780574342</v>
       </c>
       <c r="R27">
-        <v>1279.379065198956</v>
+        <v>1809.718025169078</v>
       </c>
       <c r="S27">
-        <v>0.03405383412040577</v>
+        <v>0.04203223131521652</v>
       </c>
       <c r="T27">
-        <v>0.04727689977071581</v>
+        <v>0.0578673877172359</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.278793</v>
+        <v>0.3396683333333333</v>
       </c>
       <c r="N28">
-        <v>0.836379</v>
+        <v>1.019005</v>
       </c>
       <c r="O28">
-        <v>0.04933994660958097</v>
+        <v>0.05754186156947282</v>
       </c>
       <c r="P28">
-        <v>0.06083074895558167</v>
+        <v>0.07149330397281219</v>
       </c>
       <c r="Q28">
-        <v>40.085926432362</v>
+        <v>69.08389131819499</v>
       </c>
       <c r="R28">
-        <v>360.773337891258</v>
+        <v>621.755021863755</v>
       </c>
       <c r="S28">
-        <v>0.009602873564062463</v>
+        <v>0.01444078609867039</v>
       </c>
       <c r="T28">
-        <v>0.01333165861423501</v>
+        <v>0.01988118503266105</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.2228665</v>
+        <v>2.364942</v>
       </c>
       <c r="N29">
-        <v>4.445733000000001</v>
+        <v>4.729884</v>
       </c>
       <c r="O29">
-        <v>0.393396227416851</v>
+        <v>0.4006354194056915</v>
       </c>
       <c r="P29">
-        <v>0.3233429677772218</v>
+        <v>0.3318482584169272</v>
       </c>
       <c r="Q29">
-        <v>319.612267840161</v>
+        <v>480.996843298614</v>
       </c>
       <c r="R29">
-        <v>1917.673607040966</v>
+        <v>2885.981059791684</v>
       </c>
       <c r="S29">
-        <v>0.07656543008357475</v>
+        <v>0.1005440254692423</v>
       </c>
       <c r="T29">
-        <v>0.070863800556971</v>
+        <v>0.09228188182297734</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8941686666666667</v>
+        <v>0.9676513333333333</v>
       </c>
       <c r="N30">
-        <v>2.682506</v>
+        <v>2.902954</v>
       </c>
       <c r="O30">
-        <v>0.1582472812204522</v>
+        <v>0.1639259642597901</v>
       </c>
       <c r="P30">
-        <v>0.1951015616817753</v>
+        <v>0.2036710052856375</v>
       </c>
       <c r="Q30">
-        <v>128.5669991360013</v>
+        <v>196.807040826806</v>
       </c>
       <c r="R30">
-        <v>1157.102992224012</v>
+        <v>1771.263367441254</v>
       </c>
       <c r="S30">
-        <v>0.0307991543939278</v>
+        <v>0.04113908937471318</v>
       </c>
       <c r="T30">
-        <v>0.04275843155152999</v>
+        <v>0.05663776489350253</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.286755</v>
+        <v>0.1512183333333333</v>
       </c>
       <c r="N31">
-        <v>0.8602650000000001</v>
+        <v>0.453655</v>
       </c>
       <c r="O31">
-        <v>0.05074903742213898</v>
+        <v>0.0256172964904973</v>
       </c>
       <c r="P31">
-        <v>0.06256800356091374</v>
+        <v>0.03182839614504945</v>
       </c>
       <c r="Q31">
-        <v>41.23073331867</v>
+        <v>30.755739879545</v>
       </c>
       <c r="R31">
-        <v>371.07659986803</v>
+        <v>276.801658915905</v>
       </c>
       <c r="S31">
-        <v>0.009877120332514561</v>
+        <v>0.006428952573924875</v>
       </c>
       <c r="T31">
-        <v>0.01371239509573397</v>
+        <v>0.008850986006930146</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.9792095000000001</v>
+        <v>1.0908385</v>
       </c>
       <c r="N32">
-        <v>1.958419</v>
+        <v>2.181677</v>
       </c>
       <c r="O32">
-        <v>0.1732975521250336</v>
+        <v>0.1847946122785994</v>
       </c>
       <c r="P32">
-        <v>0.1424379312953115</v>
+        <v>0.1530662724240735</v>
       </c>
       <c r="Q32">
-        <v>138.6725567199958</v>
+        <v>147.8077568056492</v>
       </c>
       <c r="R32">
-        <v>832.035340319975</v>
+        <v>886.846540833895</v>
       </c>
       <c r="S32">
-        <v>0.03322001379297883</v>
+        <v>0.03089664115652542</v>
       </c>
       <c r="T32">
-        <v>0.03074620529599157</v>
+        <v>0.02835772861317985</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.965978</v>
       </c>
       <c r="O33">
-        <v>0.1749699552059434</v>
+        <v>0.1674848459959488</v>
       </c>
       <c r="P33">
-        <v>0.215718786729196</v>
+        <v>0.2080927637555003</v>
       </c>
       <c r="Q33">
-        <v>140.0108122709389</v>
+        <v>133.9625602735589</v>
       </c>
       <c r="R33">
-        <v>1260.09731043845</v>
+        <v>1205.66304246203</v>
       </c>
       <c r="S33">
-        <v>0.03354060258799633</v>
+        <v>0.02800254359197043</v>
       </c>
       <c r="T33">
-        <v>0.04656438100906623</v>
+        <v>0.03855217761229637</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.278793</v>
+        <v>0.3396683333333333</v>
       </c>
       <c r="N34">
-        <v>0.836379</v>
+        <v>1.019005</v>
       </c>
       <c r="O34">
-        <v>0.04933994660958097</v>
+        <v>0.05754186156947282</v>
       </c>
       <c r="P34">
-        <v>0.06083074895558167</v>
+        <v>0.07149330397281219</v>
       </c>
       <c r="Q34">
-        <v>39.481784138775</v>
+        <v>46.02479139479722</v>
       </c>
       <c r="R34">
-        <v>355.336057248975</v>
+        <v>414.223122553175</v>
       </c>
       <c r="S34">
-        <v>0.00945814690869109</v>
+        <v>0.009620682261613483</v>
       </c>
       <c r="T34">
-        <v>0.01313073476066977</v>
+        <v>0.01324516289325749</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.2228665</v>
+        <v>2.364942</v>
       </c>
       <c r="N35">
-        <v>4.445733000000001</v>
+        <v>4.729884</v>
       </c>
       <c r="O35">
-        <v>0.393396227416851</v>
+        <v>0.4006354194056915</v>
       </c>
       <c r="P35">
-        <v>0.3233429677772218</v>
+        <v>0.3318482584169272</v>
       </c>
       <c r="Q35">
-        <v>314.7953331766375</v>
+        <v>320.44777663739</v>
       </c>
       <c r="R35">
-        <v>1888.771999059825</v>
+        <v>1922.68665982434</v>
       </c>
       <c r="S35">
-        <v>0.07541149855056614</v>
+        <v>0.06698403506109799</v>
       </c>
       <c r="T35">
-        <v>0.06979579932035203</v>
+        <v>0.06147966304994807</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8941686666666667</v>
+        <v>0.9676513333333333</v>
       </c>
       <c r="N36">
-        <v>2.682506</v>
+        <v>2.902954</v>
       </c>
       <c r="O36">
-        <v>0.1582472812204522</v>
+        <v>0.1639259642597901</v>
       </c>
       <c r="P36">
-        <v>0.1951015616817753</v>
+        <v>0.2036710052856375</v>
       </c>
       <c r="Q36">
-        <v>126.6293424906278</v>
+        <v>131.1159928348656</v>
       </c>
       <c r="R36">
-        <v>1139.66408241565</v>
+        <v>1180.04393551379</v>
       </c>
       <c r="S36">
-        <v>0.03033497473208354</v>
+        <v>0.02740751817123558</v>
       </c>
       <c r="T36">
-        <v>0.04211401144685032</v>
+        <v>0.03773298325487452</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.286755</v>
+        <v>0.1512183333333333</v>
       </c>
       <c r="N37">
-        <v>0.8602650000000001</v>
+        <v>0.453655</v>
       </c>
       <c r="O37">
-        <v>0.05074903742213898</v>
+        <v>0.0256172964904973</v>
       </c>
       <c r="P37">
-        <v>0.06256800356091374</v>
+        <v>0.03182839614504945</v>
       </c>
       <c r="Q37">
-        <v>40.609337432125</v>
+        <v>20.48996495621389</v>
       </c>
       <c r="R37">
-        <v>365.484036889125</v>
+        <v>184.409684605925</v>
       </c>
       <c r="S37">
-        <v>0.009728260454178239</v>
+        <v>0.004283070849890104</v>
       </c>
       <c r="T37">
-        <v>0.0135057330933555</v>
+        <v>0.005896668193326558</v>
       </c>
     </row>
   </sheetData>
